--- a/biology/Médecine/Endodontie_chirurgicale/Endodontie_chirurgicale.xlsx
+++ b/biology/Médecine/Endodontie_chirurgicale/Endodontie_chirurgicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On pratique un acte d'endodontie chirurgicale lorsque les approches intracanalaires sont techniquement difficiles ou impraticables.
 Un planning pré-opératoire est nécessaire.
@@ -513,7 +525,9 @@
           <t>Incision et drainage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'objectif est de soulager l'écoulement qui est enfermé dans le tissu et ne peut être drainé par le canal radiculaire lors d'un traitement d'urgence avant de commencer un traitement canalaire dans les cas d'abcès fluctuants. On doit avoir recours à une anesthésie. Une incision est pratiquée sur l'abcès fluctuant et un drainage mis en place. Si l'on doit pratiquer un test de sensibilité microbienne, il faut pratiquer l'aspiration du contenu de l'abcès avant l'incision. On peut y placer un drain. La dent est alors, ou peu après, isolée et le canal radiculaire préparé. Si on ne peut obtenir aucun drainage, et que l'infection produit des effets systémiques, on peut envisager l'utilisation des antibiotiques.
 Chirurgie apicale: Principes généraux.
@@ -549,7 +563,9 @@
           <t>Chirurgie explorative</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'objectif d'une chirurgie explorative est de diagnostiquer un problème endodontique qui ne peut être diagnostiqué autrement. Il est nécessaire de pratiquer un lambeau pour examiner la zone, en regard d'une fracture radiculaire longitudinale. On peut pratiquer le traitement approprié en même temps que cette exploration.
 </t>
@@ -580,7 +596,9 @@
           <t>Curetage périradiculaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'objectif du curetage est de retirer le tissu granulomateux ou kystique et/ou les corps étrangers de l'os alvéolaire dans la région apicale ou latérale entourant une dent dépulpée. Le procédé est rarement utilisé seul, et seulement quand le système canalaire a été jugé correctement désinfecté et rempli.
 Biopsie
@@ -613,7 +631,9 @@
           <t>Résection apicale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les objectifs de la résection apicale sont :
 retirer une partie de la racine qui ne pourrait être désinfectée ou/et remplie avec un matériau de remplissage de canal et dont les contenus peuvent avoir causé ou maintenu une inflammation,
@@ -649,7 +669,9 @@
           <t>Réparation de perforation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'objectif d'une réparation de perforation est de préparer, désinfecter remplir tout canal latéral de la racine avec un matériau de remplissage.
 </t>
@@ -680,7 +702,9 @@
           <t>Résection de la racine</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'objectif d'une résection de racine est de retirer une racine entière, ou des racines de dents multi radiculaires, sans retirer la partie correspondante de la couronne. L'indication inclut la parodontite apicale, la fracture de racine, ou l'impossibilité de pratiquer un traitement de canal radiculaire ou la résection d'une terminaison radiculaire, alors que des symptômes algiques et signes pathologiques sont présents.
 </t>
@@ -711,7 +735,9 @@
           <t>Résection de la dent</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'objectif de la résection de la dent est de couper sur une dent multi radiculaire une racine entière ou des racines, avec la partie coronaire de la dent. Les indications sont les mêmes que celles de la résection de racine. La résection de la dent et de la racine nécessite généralement un traitement de canal radiculaire de toutes les racines restantes, de préférence avant le commencement de la procédure chirurgicale.
 </t>
@@ -742,7 +768,9 @@
           <t>Extraction avec réimplantation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les objectifs de l'extraction avec réimplantation sont
 extraire la dent intentionnellement de sa cavité,
